--- a/Team-Data/2007-08/2-22-2007-08.xlsx
+++ b/Team-Data/2007-08/2-22-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,37 +733,37 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" t="n">
         <v>30</v>
       </c>
       <c r="G2" t="n">
-        <v>0.434</v>
+        <v>0.423</v>
       </c>
       <c r="H2" t="n">
         <v>48.6</v>
       </c>
       <c r="I2" t="n">
-        <v>35.2</v>
+        <v>35</v>
       </c>
       <c r="J2" t="n">
-        <v>79.40000000000001</v>
+        <v>79.2</v>
       </c>
       <c r="K2" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L2" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M2" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0.333</v>
+        <v>0.329</v>
       </c>
       <c r="O2" t="n">
         <v>21.2</v>
@@ -705,22 +772,22 @@
         <v>27.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.773</v>
+        <v>0.772</v>
       </c>
       <c r="R2" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S2" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T2" t="n">
-        <v>42.2</v>
+        <v>41.9</v>
       </c>
       <c r="U2" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V2" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W2" t="n">
         <v>7.7</v>
@@ -732,19 +799,19 @@
         <v>5.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA2" t="n">
         <v>21.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.5</v>
+        <v>95</v>
       </c>
       <c r="AC2" t="n">
-        <v>-2.1</v>
+        <v>-2.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE2" t="n">
         <v>20</v>
@@ -753,10 +820,10 @@
         <v>18</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI2" t="n">
         <v>27</v>
@@ -765,7 +832,7 @@
         <v>22</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL2" t="n">
         <v>29</v>
@@ -774,10 +841,10 @@
         <v>29</v>
       </c>
       <c r="AN2" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AO2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AP2" t="n">
         <v>8</v>
@@ -786,19 +853,19 @@
         <v>8</v>
       </c>
       <c r="AR2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AU2" t="n">
         <v>20</v>
       </c>
       <c r="AV2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AW2" t="n">
         <v>9</v>
@@ -807,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="AY2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ2" t="n">
         <v>17</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-22-2007-08</t>
+          <t>2008-02-22</t>
         </is>
       </c>
     </row>
@@ -848,43 +915,43 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" t="n">
         <v>41</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" t="n">
-        <v>0.774</v>
+        <v>0.788</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
       </c>
       <c r="I3" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J3" t="n">
         <v>75.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.471</v>
+        <v>0.473</v>
       </c>
       <c r="L3" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M3" t="n">
         <v>19.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.379</v>
+        <v>0.381</v>
       </c>
       <c r="O3" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="P3" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="Q3" t="n">
         <v>0.767</v>
@@ -893,19 +960,19 @@
         <v>9.699999999999999</v>
       </c>
       <c r="S3" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="T3" t="n">
-        <v>40.9</v>
+        <v>41.1</v>
       </c>
       <c r="U3" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V3" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W3" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X3" t="n">
         <v>4.4</v>
@@ -914,19 +981,19 @@
         <v>4.9</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.1</v>
+        <v>100.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -938,10 +1005,10 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -959,10 +1026,10 @@
         <v>4</v>
       </c>
       <c r="AO3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP3" t="n">
         <v>6</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>7</v>
       </c>
       <c r="AQ3" t="n">
         <v>10</v>
@@ -974,25 +1041,25 @@
         <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AU3" t="n">
         <v>11</v>
       </c>
       <c r="AV3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AW3" t="n">
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA3" t="n">
         <v>4</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-22-2007-08</t>
+          <t>2008-02-22</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" t="n">
         <v>19</v>
       </c>
       <c r="F4" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" t="n">
-        <v>0.345</v>
+        <v>0.352</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
@@ -1054,58 +1121,58 @@
         <v>0.446</v>
       </c>
       <c r="L4" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M4" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="N4" t="n">
-        <v>0.356</v>
+        <v>0.354</v>
       </c>
       <c r="O4" t="n">
-        <v>18</v>
+        <v>17.8</v>
       </c>
       <c r="P4" t="n">
-        <v>25.7</v>
+        <v>25.3</v>
       </c>
       <c r="Q4" t="n">
         <v>0.703</v>
       </c>
       <c r="R4" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S4" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T4" t="n">
         <v>40.4</v>
       </c>
       <c r="U4" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V4" t="n">
         <v>15.1</v>
       </c>
       <c r="W4" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X4" t="n">
         <v>5</v>
       </c>
       <c r="Y4" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.3</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-5.4</v>
+        <v>-5.5</v>
       </c>
       <c r="AD4" t="n">
         <v>3</v>
@@ -1120,13 +1187,13 @@
         <v>25</v>
       </c>
       <c r="AH4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK4" t="n">
         <v>20</v>
@@ -1135,16 +1202,16 @@
         <v>17</v>
       </c>
       <c r="AM4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN4" t="n">
         <v>15</v>
       </c>
       <c r="AO4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ4" t="n">
         <v>29</v>
@@ -1156,25 +1223,25 @@
         <v>27</v>
       </c>
       <c r="AT4" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AU4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV4" t="n">
         <v>19</v>
       </c>
       <c r="AW4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX4" t="n">
         <v>12</v>
       </c>
       <c r="AY4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA4" t="n">
         <v>17</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-22-2007-08</t>
+          <t>2008-02-22</t>
         </is>
       </c>
     </row>
@@ -1212,46 +1279,46 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" t="n">
         <v>32</v>
       </c>
       <c r="G5" t="n">
-        <v>0.407</v>
+        <v>0.396</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
       </c>
       <c r="I5" t="n">
-        <v>36</v>
+        <v>35.6</v>
       </c>
       <c r="J5" t="n">
-        <v>84.40000000000001</v>
+        <v>84.2</v>
       </c>
       <c r="K5" t="n">
-        <v>0.427</v>
+        <v>0.423</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M5" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.348</v>
+        <v>0.344</v>
       </c>
       <c r="O5" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P5" t="n">
         <v>24.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.743</v>
+        <v>0.745</v>
       </c>
       <c r="R5" t="n">
         <v>13.6</v>
@@ -1263,10 +1330,10 @@
         <v>43.8</v>
       </c>
       <c r="U5" t="n">
-        <v>21.5</v>
+        <v>21.2</v>
       </c>
       <c r="V5" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W5" t="n">
         <v>7.5</v>
@@ -1284,19 +1351,19 @@
         <v>21.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.59999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.6</v>
+        <v>-2.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG5" t="n">
         <v>21</v>
@@ -1305,16 +1372,16 @@
         <v>7</v>
       </c>
       <c r="AI5" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM5" t="n">
         <v>24</v>
@@ -1323,7 +1390,7 @@
         <v>17</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP5" t="n">
         <v>19</v>
@@ -1341,7 +1408,7 @@
         <v>6</v>
       </c>
       <c r="AU5" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AV5" t="n">
         <v>14</v>
@@ -1356,13 +1423,13 @@
         <v>27</v>
       </c>
       <c r="AZ5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA5" t="n">
         <v>14</v>
       </c>
       <c r="BB5" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BC5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-22-2007-08</t>
+          <t>2008-02-22</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="n">
         <v>24</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.556</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
@@ -1412,28 +1479,28 @@
         <v>36.1</v>
       </c>
       <c r="J6" t="n">
-        <v>82.09999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="K6" t="n">
         <v>0.439</v>
       </c>
       <c r="L6" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M6" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="N6" t="n">
         <v>0.362</v>
       </c>
       <c r="O6" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P6" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.72</v>
+        <v>0.722</v>
       </c>
       <c r="R6" t="n">
         <v>13</v>
@@ -1442,7 +1509,7 @@
         <v>31.2</v>
       </c>
       <c r="T6" t="n">
-        <v>44.1</v>
+        <v>44.2</v>
       </c>
       <c r="U6" t="n">
         <v>19.4</v>
@@ -1451,7 +1518,7 @@
         <v>14.3</v>
       </c>
       <c r="W6" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X6" t="n">
         <v>4.9</v>
@@ -1466,7 +1533,7 @@
         <v>19.9</v>
       </c>
       <c r="AB6" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="AC6" t="n">
         <v>-1.2</v>
@@ -1478,10 +1545,10 @@
         <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH6" t="n">
         <v>2</v>
@@ -1490,7 +1557,7 @@
         <v>20</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK6" t="n">
         <v>28</v>
@@ -1502,19 +1569,19 @@
         <v>12</v>
       </c>
       <c r="AN6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
         <v>27</v>
       </c>
       <c r="AR6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS6" t="n">
         <v>12</v>
@@ -1532,7 +1599,7 @@
         <v>11</v>
       </c>
       <c r="AX6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY6" t="n">
         <v>14</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-22-2007-08</t>
+          <t>2008-02-22</t>
         </is>
       </c>
     </row>
@@ -1576,22 +1643,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" t="n">
         <v>19</v>
       </c>
       <c r="G7" t="n">
-        <v>0.655</v>
+        <v>0.648</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J7" t="n">
         <v>78.5</v>
@@ -1606,34 +1673,34 @@
         <v>16.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.34</v>
+        <v>0.337</v>
       </c>
       <c r="O7" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="P7" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.819</v>
       </c>
       <c r="R7" t="n">
         <v>10.9</v>
       </c>
       <c r="S7" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T7" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U7" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="V7" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="W7" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="X7" t="n">
         <v>4.9</v>
@@ -1651,13 +1718,13 @@
         <v>99.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="AD7" t="n">
         <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF7" t="n">
         <v>7</v>
@@ -1666,10 +1733,10 @@
         <v>7</v>
       </c>
       <c r="AH7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
         <v>26</v>
@@ -1684,13 +1751,13 @@
         <v>20</v>
       </c>
       <c r="AN7" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AO7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP7" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -1702,10 +1769,10 @@
         <v>8</v>
       </c>
       <c r="AT7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV7" t="n">
         <v>4</v>
@@ -1720,7 +1787,7 @@
         <v>5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA7" t="n">
         <v>13</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-22-2007-08</t>
+          <t>2008-02-22</t>
         </is>
       </c>
     </row>
@@ -1758,22 +1825,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" t="n">
         <v>33</v>
       </c>
       <c r="F8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8" t="n">
-        <v>0.611</v>
+        <v>0.623</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
       </c>
       <c r="I8" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="J8" t="n">
         <v>85.2</v>
@@ -1782,43 +1849,43 @@
         <v>0.455</v>
       </c>
       <c r="L8" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M8" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="N8" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="O8" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="P8" t="n">
         <v>30.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.76</v>
+        <v>0.759</v>
       </c>
       <c r="R8" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S8" t="n">
-        <v>32.6</v>
+        <v>32.8</v>
       </c>
       <c r="T8" t="n">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="U8" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="V8" t="n">
         <v>15.5</v>
       </c>
       <c r="W8" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="X8" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="Y8" t="n">
         <v>5.1</v>
@@ -1830,22 +1897,22 @@
         <v>24.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>107.2</v>
+        <v>107</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
       </c>
       <c r="AF8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG8" t="n">
         <v>10</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>11</v>
       </c>
       <c r="AH8" t="n">
         <v>7</v>
@@ -1854,7 +1921,7 @@
         <v>5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK8" t="n">
         <v>15</v>
@@ -1887,7 +1954,7 @@
         <v>2</v>
       </c>
       <c r="AU8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV8" t="n">
         <v>24</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-22-2007-08</t>
+          <t>2008-02-22</t>
         </is>
       </c>
     </row>
@@ -1940,31 +2007,31 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" t="n">
         <v>15</v>
       </c>
       <c r="G9" t="n">
-        <v>0.727</v>
+        <v>0.722</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
       </c>
       <c r="I9" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J9" t="n">
-        <v>79.8</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L9" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>16.2</v>
@@ -1973,28 +2040,28 @@
         <v>0.373</v>
       </c>
       <c r="O9" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="P9" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.759</v>
+        <v>0.758</v>
       </c>
       <c r="R9" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S9" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="T9" t="n">
         <v>41</v>
       </c>
       <c r="U9" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="V9" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="W9" t="n">
         <v>7.5</v>
@@ -2003,19 +2070,19 @@
         <v>5.3</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Z9" t="n">
         <v>20.7</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB9" t="n">
-        <v>98</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="AD9" t="n">
         <v>3</v>
@@ -2030,25 +2097,25 @@
         <v>2</v>
       </c>
       <c r="AH9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
         <v>14</v>
       </c>
       <c r="AJ9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AL9" t="n">
         <v>18</v>
       </c>
       <c r="AM9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO9" t="n">
         <v>14</v>
@@ -2057,10 +2124,10 @@
         <v>17</v>
       </c>
       <c r="AQ9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>14</v>
       </c>
       <c r="AS9" t="n">
         <v>25</v>
@@ -2078,7 +2145,7 @@
         <v>14</v>
       </c>
       <c r="AX9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY9" t="n">
         <v>1</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-22-2007-08</t>
+          <t>2008-02-22</t>
         </is>
       </c>
     </row>
@@ -2122,46 +2189,46 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" t="n">
         <v>33</v>
       </c>
       <c r="F10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6</v>
+        <v>0.611</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="J10" t="n">
-        <v>88.7</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L10" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="M10" t="n">
         <v>27.2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.35</v>
+        <v>0.352</v>
       </c>
       <c r="O10" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="P10" t="n">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.746</v>
+        <v>0.747</v>
       </c>
       <c r="R10" t="n">
         <v>12.1</v>
@@ -2191,13 +2258,13 @@
         <v>23.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AB10" t="n">
         <v>110.1</v>
       </c>
       <c r="AC10" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AD10" t="n">
         <v>3</v>
@@ -2209,10 +2276,10 @@
         <v>11</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2233,7 +2300,7 @@
         <v>16</v>
       </c>
       <c r="AO10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP10" t="n">
         <v>11</v>
@@ -2242,13 +2309,13 @@
         <v>18</v>
       </c>
       <c r="AR10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS10" t="n">
         <v>18</v>
       </c>
       <c r="AT10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU10" t="n">
         <v>7</v>
@@ -2260,16 +2327,16 @@
         <v>3</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ10" t="n">
         <v>27</v>
       </c>
       <c r="BA10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB10" t="n">
         <v>1</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-22-2007-08</t>
+          <t>2008-02-22</t>
         </is>
       </c>
     </row>
@@ -2304,28 +2371,28 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" t="n">
         <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>0.636</v>
+        <v>0.63</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
       </c>
       <c r="I11" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J11" t="n">
-        <v>81.09999999999999</v>
+        <v>81</v>
       </c>
       <c r="K11" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L11" t="n">
         <v>6.8</v>
@@ -2337,22 +2404,22 @@
         <v>0.339</v>
       </c>
       <c r="O11" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P11" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="Q11" t="n">
         <v>0.729</v>
       </c>
       <c r="R11" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S11" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="T11" t="n">
-        <v>44.4</v>
+        <v>44.2</v>
       </c>
       <c r="U11" t="n">
         <v>21.9</v>
@@ -2361,37 +2428,37 @@
         <v>14.6</v>
       </c>
       <c r="W11" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X11" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y11" t="n">
         <v>4.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB11" t="n">
-        <v>96.09999999999999</v>
+        <v>96</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AD11" t="n">
         <v>3</v>
       </c>
       <c r="AE11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH11" t="n">
         <v>24</v>
@@ -2400,7 +2467,7 @@
         <v>15</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
         <v>19</v>
@@ -2412,19 +2479,19 @@
         <v>8</v>
       </c>
       <c r="AN11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP11" t="n">
         <v>24</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>28</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>26</v>
       </c>
       <c r="AQ11" t="n">
         <v>22</v>
       </c>
       <c r="AR11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS11" t="n">
         <v>7</v>
@@ -2439,16 +2506,16 @@
         <v>13</v>
       </c>
       <c r="AW11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA11" t="n">
         <v>24</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-22-2007-08</t>
+          <t>2008-02-22</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" t="n">
         <v>33</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4</v>
+        <v>0.389</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
@@ -2510,16 +2577,16 @@
         <v>0.439</v>
       </c>
       <c r="L12" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M12" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.365</v>
+        <v>0.363</v>
       </c>
       <c r="O12" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="P12" t="n">
         <v>24.1</v>
@@ -2528,10 +2595,10 @@
         <v>0.77</v>
       </c>
       <c r="R12" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S12" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T12" t="n">
         <v>43.8</v>
@@ -2540,7 +2607,7 @@
         <v>22.9</v>
       </c>
       <c r="V12" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="W12" t="n">
         <v>7.5</v>
@@ -2558,10 +2625,10 @@
         <v>21.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.6</v>
+        <v>102.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.5</v>
+        <v>-2.7</v>
       </c>
       <c r="AD12" t="n">
         <v>3</v>
@@ -2576,7 +2643,7 @@
         <v>22</v>
       </c>
       <c r="AH12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
         <v>8</v>
@@ -2588,13 +2655,13 @@
         <v>27</v>
       </c>
       <c r="AL12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM12" t="n">
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO12" t="n">
         <v>15</v>
@@ -2609,7 +2676,7 @@
         <v>17</v>
       </c>
       <c r="AS12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT12" t="n">
         <v>7</v>
@@ -2624,7 +2691,7 @@
         <v>13</v>
       </c>
       <c r="AX12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY12" t="n">
         <v>22</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-22-2007-08</t>
+          <t>2008-02-22</t>
         </is>
       </c>
     </row>
@@ -2668,25 +2735,25 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" t="n">
         <v>33</v>
       </c>
       <c r="G13" t="n">
-        <v>0.365</v>
+        <v>0.353</v>
       </c>
       <c r="H13" t="n">
         <v>48.2</v>
       </c>
       <c r="I13" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="J13" t="n">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="K13" t="n">
         <v>0.44</v>
@@ -2701,28 +2768,28 @@
         <v>0.342</v>
       </c>
       <c r="O13" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="P13" t="n">
-        <v>26.6</v>
+        <v>26.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.794</v>
+        <v>0.79</v>
       </c>
       <c r="R13" t="n">
         <v>9.4</v>
       </c>
       <c r="S13" t="n">
-        <v>30.9</v>
+        <v>31.1</v>
       </c>
       <c r="T13" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U13" t="n">
         <v>21.3</v>
       </c>
       <c r="V13" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W13" t="n">
         <v>7.1</v>
@@ -2731,34 +2798,34 @@
         <v>5.1</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.7</v>
+        <v>94.3</v>
       </c>
       <c r="AC13" t="n">
-        <v>-4</v>
+        <v>-4.3</v>
       </c>
       <c r="AD13" t="n">
         <v>30</v>
       </c>
       <c r="AE13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF13" t="n">
         <v>22</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
@@ -2767,7 +2834,7 @@
         <v>24</v>
       </c>
       <c r="AK13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL13" t="n">
         <v>28</v>
@@ -2776,16 +2843,16 @@
         <v>27</v>
       </c>
       <c r="AN13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AR13" t="n">
         <v>28</v>
@@ -2794,10 +2861,10 @@
         <v>13</v>
       </c>
       <c r="AT13" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AU13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV13" t="n">
         <v>11</v>
@@ -2806,19 +2873,19 @@
         <v>20</v>
       </c>
       <c r="AX13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA13" t="n">
         <v>11</v>
       </c>
       <c r="BB13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC13" t="n">
         <v>22</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-22-2007-08</t>
+          <t>2008-02-22</t>
         </is>
       </c>
     </row>
@@ -2928,16 +2995,16 @@
         <v>6.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF14" t="n">
         <v>4</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH14" t="n">
         <v>26</v>
@@ -2946,7 +3013,7 @@
         <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK14" t="n">
         <v>3</v>
@@ -2979,7 +3046,7 @@
         <v>5</v>
       </c>
       <c r="AU14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV14" t="n">
         <v>16</v>
@@ -2988,7 +3055,7 @@
         <v>6</v>
       </c>
       <c r="AX14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY14" t="n">
         <v>15</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-22-2007-08</t>
+          <t>2008-02-22</t>
         </is>
       </c>
     </row>
@@ -3032,88 +3099,88 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" t="n">
         <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G15" t="n">
-        <v>0.255</v>
+        <v>0.259</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
       </c>
       <c r="I15" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J15" t="n">
         <v>80.90000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L15" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M15" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.361</v>
+        <v>0.364</v>
       </c>
       <c r="O15" t="n">
         <v>18.2</v>
       </c>
       <c r="P15" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.736</v>
+        <v>0.737</v>
       </c>
       <c r="R15" t="n">
         <v>10.1</v>
       </c>
       <c r="S15" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T15" t="n">
         <v>41.7</v>
       </c>
       <c r="U15" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="V15" t="n">
         <v>16</v>
       </c>
       <c r="W15" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="X15" t="n">
         <v>5.1</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA15" t="n">
         <v>22.3</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.3</v>
+        <v>-5.1</v>
       </c>
       <c r="AD15" t="n">
         <v>3</v>
       </c>
       <c r="AE15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF15" t="n">
         <v>28</v>
@@ -3125,25 +3192,25 @@
         <v>13</v>
       </c>
       <c r="AI15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ15" t="n">
         <v>14</v>
       </c>
       <c r="AK15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM15" t="n">
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AO15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP15" t="n">
         <v>18</v>
@@ -3155,13 +3222,13 @@
         <v>23</v>
       </c>
       <c r="AS15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT15" t="n">
         <v>18</v>
       </c>
       <c r="AU15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV15" t="n">
         <v>29</v>
@@ -3170,7 +3237,7 @@
         <v>29</v>
       </c>
       <c r="AX15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY15" t="n">
         <v>13</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-22-2007-08</t>
+          <t>2008-02-22</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-7.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3304,7 +3371,7 @@
         <v>30</v>
       </c>
       <c r="AH16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI16" t="n">
         <v>26</v>
@@ -3322,13 +3389,13 @@
         <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ16" t="n">
         <v>28</v>
@@ -3337,7 +3404,7 @@
         <v>29</v>
       </c>
       <c r="AS16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT16" t="n">
         <v>30</v>
@@ -3361,7 +3428,7 @@
         <v>10</v>
       </c>
       <c r="BA16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB16" t="n">
         <v>30</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-22-2007-08</t>
+          <t>2008-02-22</t>
         </is>
       </c>
     </row>
@@ -3396,58 +3463,58 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" t="n">
         <v>20</v>
       </c>
       <c r="F17" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G17" t="n">
-        <v>0.364</v>
+        <v>0.37</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
       </c>
       <c r="I17" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J17" t="n">
-        <v>80.5</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L17" t="n">
         <v>5.5</v>
       </c>
       <c r="M17" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="N17" t="n">
         <v>0.339</v>
       </c>
       <c r="O17" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P17" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.743</v>
+        <v>0.745</v>
       </c>
       <c r="R17" t="n">
         <v>11.9</v>
       </c>
       <c r="S17" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="T17" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U17" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V17" t="n">
         <v>14.8</v>
@@ -3456,22 +3523,22 @@
         <v>6.6</v>
       </c>
       <c r="X17" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AA17" t="n">
         <v>20.2</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.7</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>-6.7</v>
+        <v>-6.3</v>
       </c>
       <c r="AD17" t="n">
         <v>3</v>
@@ -3483,13 +3550,13 @@
         <v>24</v>
       </c>
       <c r="AG17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH17" t="n">
         <v>13</v>
       </c>
       <c r="AI17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ17" t="n">
         <v>16</v>
@@ -3501,7 +3568,7 @@
         <v>22</v>
       </c>
       <c r="AM17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN17" t="n">
         <v>23</v>
@@ -3510,22 +3577,22 @@
         <v>25</v>
       </c>
       <c r="AP17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ17" t="n">
         <v>20</v>
       </c>
       <c r="AR17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS17" t="n">
         <v>30</v>
       </c>
       <c r="AT17" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AU17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AV17" t="n">
         <v>15</v>
@@ -3534,7 +3601,7 @@
         <v>22</v>
       </c>
       <c r="AX17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY17" t="n">
         <v>21</v>
@@ -3546,10 +3613,10 @@
         <v>22</v>
       </c>
       <c r="BB17" t="n">
+        <v>26</v>
+      </c>
+      <c r="BC17" t="n">
         <v>27</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>28</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-22-2007-08</t>
+          <t>2008-02-22</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-7.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3677,10 +3744,10 @@
         <v>8</v>
       </c>
       <c r="AK18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM18" t="n">
         <v>22</v>
@@ -3695,7 +3762,7 @@
         <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR18" t="n">
         <v>6</v>
@@ -3704,22 +3771,22 @@
         <v>19</v>
       </c>
       <c r="AT18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU18" t="n">
         <v>27</v>
       </c>
       <c r="AV18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
       </c>
       <c r="AY18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-22-2007-08</t>
+          <t>2008-02-22</t>
         </is>
       </c>
     </row>
@@ -3760,61 +3827,61 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" t="n">
         <v>24</v>
       </c>
       <c r="F19" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" t="n">
-        <v>0.436</v>
+        <v>0.444</v>
       </c>
       <c r="H19" t="n">
         <v>48.5</v>
       </c>
       <c r="I19" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="J19" t="n">
         <v>77.90000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L19" t="n">
         <v>5.7</v>
       </c>
       <c r="M19" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.339</v>
+        <v>0.336</v>
       </c>
       <c r="O19" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="P19" t="n">
         <v>28</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.724</v>
+        <v>0.725</v>
       </c>
       <c r="R19" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S19" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T19" t="n">
         <v>42.5</v>
       </c>
       <c r="U19" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="V19" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="W19" t="n">
         <v>6.4</v>
@@ -3826,13 +3893,13 @@
         <v>4.3</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AA19" t="n">
         <v>22.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>94.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC19" t="n">
         <v>-5.1</v>
@@ -3844,7 +3911,7 @@
         <v>18</v>
       </c>
       <c r="AF19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG19" t="n">
         <v>18</v>
@@ -3862,13 +3929,13 @@
         <v>29</v>
       </c>
       <c r="AL19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM19" t="n">
         <v>19</v>
       </c>
       <c r="AN19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO19" t="n">
         <v>10</v>
@@ -3877,31 +3944,31 @@
         <v>5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AR19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS19" t="n">
         <v>15</v>
       </c>
       <c r="AT19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU19" t="n">
         <v>3</v>
       </c>
       <c r="AV19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX19" t="n">
         <v>17</v>
       </c>
       <c r="AY19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ19" t="n">
         <v>26</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-22-2007-08</t>
+          <t>2008-02-22</t>
         </is>
       </c>
     </row>
@@ -3942,61 +4009,61 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" t="n">
         <v>37</v>
       </c>
       <c r="F20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G20" t="n">
-        <v>0.698</v>
+        <v>0.712</v>
       </c>
       <c r="H20" t="n">
         <v>48.5</v>
       </c>
       <c r="I20" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="J20" t="n">
-        <v>83.40000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="K20" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L20" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M20" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.385</v>
+        <v>0.387</v>
       </c>
       <c r="O20" t="n">
         <v>15.6</v>
       </c>
       <c r="P20" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.776</v>
+        <v>0.781</v>
       </c>
       <c r="R20" t="n">
         <v>11.7</v>
       </c>
       <c r="S20" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T20" t="n">
-        <v>42.6</v>
+        <v>42.7</v>
       </c>
       <c r="U20" t="n">
         <v>21.6</v>
       </c>
       <c r="V20" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="W20" t="n">
         <v>7.7</v>
@@ -4005,28 +4072,28 @@
         <v>4</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z20" t="n">
         <v>18.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.1</v>
+        <v>100.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG20" t="n">
         <v>3</v>
@@ -4044,7 +4111,7 @@
         <v>8</v>
       </c>
       <c r="AL20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AM20" t="n">
         <v>7</v>
@@ -4071,19 +4138,19 @@
         <v>8</v>
       </c>
       <c r="AU20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ20" t="n">
         <v>2</v>
@@ -4092,10 +4159,10 @@
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-22-2007-08</t>
+          <t>2008-02-22</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" t="n">
         <v>38</v>
       </c>
       <c r="G21" t="n">
-        <v>0.309</v>
+        <v>0.296</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
@@ -4148,34 +4215,34 @@
         <v>0.44</v>
       </c>
       <c r="L21" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M21" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="N21" t="n">
         <v>0.332</v>
       </c>
       <c r="O21" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="P21" t="n">
         <v>26.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.727</v>
+        <v>0.725</v>
       </c>
       <c r="R21" t="n">
         <v>12.2</v>
       </c>
       <c r="S21" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T21" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U21" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="V21" t="n">
         <v>15.7</v>
@@ -4187,19 +4254,19 @@
         <v>2.3</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB21" t="n">
-        <v>95</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>-6</v>
+        <v>-6.2</v>
       </c>
       <c r="AD21" t="n">
         <v>3</v>
@@ -4223,7 +4290,7 @@
         <v>20</v>
       </c>
       <c r="AK21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL21" t="n">
         <v>19</v>
@@ -4232,22 +4299,22 @@
         <v>15</v>
       </c>
       <c r="AN21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO21" t="n">
         <v>13</v>
       </c>
       <c r="AP21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR21" t="n">
         <v>7</v>
       </c>
       <c r="AS21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT21" t="n">
         <v>17</v>
@@ -4256,7 +4323,7 @@
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW21" t="n">
         <v>26</v>
@@ -4271,7 +4338,7 @@
         <v>18</v>
       </c>
       <c r="BA21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB21" t="n">
         <v>24</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-22-2007-08</t>
+          <t>2008-02-22</t>
         </is>
       </c>
     </row>
@@ -4306,58 +4373,58 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E22" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" t="n">
         <v>22</v>
       </c>
       <c r="G22" t="n">
-        <v>0.614</v>
+        <v>0.607</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J22" t="n">
-        <v>78.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="K22" t="n">
-        <v>0.47</v>
+        <v>0.469</v>
       </c>
       <c r="L22" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M22" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="N22" t="n">
-        <v>0.374</v>
+        <v>0.373</v>
       </c>
       <c r="O22" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="P22" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.728</v>
+        <v>0.727</v>
       </c>
       <c r="R22" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="S22" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T22" t="n">
         <v>42.2</v>
       </c>
       <c r="U22" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V22" t="n">
         <v>14.6</v>
@@ -4366,40 +4433,40 @@
         <v>6.2</v>
       </c>
       <c r="X22" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y22" t="n">
         <v>4.3</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="AB22" t="n">
-        <v>104.3</v>
+        <v>104.1</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH22" t="n">
         <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ22" t="n">
         <v>25</v>
@@ -4414,10 +4481,10 @@
         <v>2</v>
       </c>
       <c r="AN22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP22" t="n">
         <v>2</v>
@@ -4429,13 +4496,13 @@
         <v>25</v>
       </c>
       <c r="AS22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV22" t="n">
         <v>12</v>
@@ -4447,7 +4514,7 @@
         <v>23</v>
       </c>
       <c r="AY22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ22" t="n">
         <v>16</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-22-2007-08</t>
+          <t>2008-02-22</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" t="n">
         <v>24</v>
       </c>
       <c r="F23" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23" t="n">
-        <v>0.429</v>
+        <v>0.436</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
@@ -4518,31 +4585,31 @@
         <v>11.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.316</v>
+        <v>0.317</v>
       </c>
       <c r="O23" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="P23" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.703</v>
+        <v>0.702</v>
       </c>
       <c r="R23" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="S23" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="T23" t="n">
-        <v>41.9</v>
+        <v>42.1</v>
       </c>
       <c r="U23" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="V23" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W23" t="n">
         <v>8.4</v>
@@ -4551,7 +4618,7 @@
         <v>5</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z23" t="n">
         <v>20.1</v>
@@ -4560,10 +4627,10 @@
         <v>20.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.90000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="AD23" t="n">
         <v>2</v>
@@ -4575,7 +4642,7 @@
         <v>20</v>
       </c>
       <c r="AG23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH23" t="n">
         <v>25</v>
@@ -4587,7 +4654,7 @@
         <v>17</v>
       </c>
       <c r="AK23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>
@@ -4599,28 +4666,28 @@
         <v>30</v>
       </c>
       <c r="AO23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV23" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AW23" t="n">
         <v>5</v>
@@ -4635,13 +4702,13 @@
         <v>9</v>
       </c>
       <c r="BA23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB23" t="n">
         <v>25</v>
       </c>
       <c r="BC23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-22-2007-08</t>
+          <t>2008-02-22</t>
         </is>
       </c>
     </row>
@@ -4670,61 +4737,61 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F24" t="n">
         <v>17</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>41.4</v>
+        <v>41.6</v>
       </c>
       <c r="J24" t="n">
-        <v>84.09999999999999</v>
+        <v>84.3</v>
       </c>
       <c r="K24" t="n">
-        <v>0.493</v>
+        <v>0.494</v>
       </c>
       <c r="L24" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="M24" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="N24" t="n">
-        <v>0.383</v>
+        <v>0.382</v>
       </c>
       <c r="O24" t="n">
         <v>18</v>
       </c>
       <c r="P24" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.792</v>
+        <v>0.795</v>
       </c>
       <c r="R24" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="S24" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="T24" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="U24" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="V24" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="W24" t="n">
         <v>7.2</v>
@@ -4733,16 +4800,16 @@
         <v>7.1</v>
       </c>
       <c r="Y24" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Z24" t="n">
         <v>19.6</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB24" t="n">
-        <v>109.6</v>
+        <v>110.1</v>
       </c>
       <c r="AC24" t="n">
         <v>5.6</v>
@@ -4760,19 +4827,19 @@
         <v>4</v>
       </c>
       <c r="AH24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK24" t="n">
         <v>1</v>
       </c>
       <c r="AL24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM24" t="n">
         <v>4</v>
@@ -4781,13 +4848,13 @@
         <v>3</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR24" t="n">
         <v>30</v>
@@ -4796,13 +4863,13 @@
         <v>6</v>
       </c>
       <c r="AT24" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
       </c>
       <c r="AV24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW24" t="n">
         <v>19</v>
@@ -4811,7 +4878,7 @@
         <v>2</v>
       </c>
       <c r="AY24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ24" t="n">
         <v>4</v>
@@ -4823,7 +4890,7 @@
         <v>2</v>
       </c>
       <c r="BC24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-22-2007-08</t>
+          <t>2008-02-22</t>
         </is>
       </c>
     </row>
@@ -4852,28 +4919,28 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" t="n">
         <v>29</v>
       </c>
       <c r="F25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G25" t="n">
-        <v>0.527</v>
+        <v>0.537</v>
       </c>
       <c r="H25" t="n">
         <v>48.7</v>
       </c>
       <c r="I25" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="J25" t="n">
         <v>78.90000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L25" t="n">
         <v>6.4</v>
@@ -4882,28 +4949,28 @@
         <v>17</v>
       </c>
       <c r="N25" t="n">
-        <v>0.375</v>
+        <v>0.378</v>
       </c>
       <c r="O25" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="P25" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.759</v>
+        <v>0.758</v>
       </c>
       <c r="R25" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S25" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T25" t="n">
         <v>40.3</v>
       </c>
       <c r="U25" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V25" t="n">
         <v>13.2</v>
@@ -4918,16 +4985,16 @@
         <v>3.8</v>
       </c>
       <c r="Z25" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AB25" t="n">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="AD25" t="n">
         <v>3</v>
@@ -4945,7 +5012,7 @@
         <v>1</v>
       </c>
       <c r="AI25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ25" t="n">
         <v>23</v>
@@ -4960,7 +5027,7 @@
         <v>18</v>
       </c>
       <c r="AN25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO25" t="n">
         <v>23</v>
@@ -4969,19 +5036,19 @@
         <v>22</v>
       </c>
       <c r="AQ25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR25" t="n">
         <v>21</v>
       </c>
       <c r="AS25" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AT25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU25" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AV25" t="n">
         <v>6</v>
@@ -4990,7 +5057,7 @@
         <v>30</v>
       </c>
       <c r="AX25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY25" t="n">
         <v>3</v>
@@ -4999,10 +5066,10 @@
         <v>8</v>
       </c>
       <c r="BA25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB25" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BC25" t="n">
         <v>16</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-22-2007-08</t>
+          <t>2008-02-22</t>
         </is>
       </c>
     </row>
@@ -5034,25 +5101,25 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F26" t="n">
         <v>28</v>
       </c>
       <c r="G26" t="n">
-        <v>0.481</v>
+        <v>0.472</v>
       </c>
       <c r="H26" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I26" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J26" t="n">
-        <v>79.5</v>
+        <v>79.3</v>
       </c>
       <c r="K26" t="n">
         <v>0.456</v>
@@ -5064,55 +5131,55 @@
         <v>17.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.378</v>
+        <v>0.375</v>
       </c>
       <c r="O26" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="P26" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.791</v>
+        <v>0.792</v>
       </c>
       <c r="R26" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S26" t="n">
-        <v>29.9</v>
+        <v>29.7</v>
       </c>
       <c r="T26" t="n">
-        <v>40.4</v>
+        <v>40.1</v>
       </c>
       <c r="U26" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="V26" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="W26" t="n">
         <v>8.1</v>
       </c>
       <c r="X26" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y26" t="n">
         <v>5.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="AA26" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="AB26" t="n">
-        <v>100.9</v>
+        <v>100.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>-1.5</v>
+        <v>-1.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE26" t="n">
         <v>16</v>
@@ -5124,10 +5191,10 @@
         <v>16</v>
       </c>
       <c r="AH26" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AI26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="n">
         <v>21</v>
@@ -5139,28 +5206,28 @@
         <v>14</v>
       </c>
       <c r="AM26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
         <v>2</v>
       </c>
       <c r="AP26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR26" t="n">
         <v>22</v>
       </c>
       <c r="AS26" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AT26" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AU26" t="n">
         <v>29</v>
@@ -5172,10 +5239,10 @@
         <v>7</v>
       </c>
       <c r="AX26" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AY26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ26" t="n">
         <v>23</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-22-2007-08</t>
+          <t>2008-02-22</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>5.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AE27" t="n">
         <v>6</v>
@@ -5315,7 +5382,7 @@
         <v>27</v>
       </c>
       <c r="AK27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL27" t="n">
         <v>5</v>
@@ -5339,13 +5406,13 @@
         <v>24</v>
       </c>
       <c r="AS27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT27" t="n">
         <v>19</v>
       </c>
       <c r="AU27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AV27" t="n">
         <v>5</v>
@@ -5354,7 +5421,7 @@
         <v>23</v>
       </c>
       <c r="AX27" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AY27" t="n">
         <v>12</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-22-2007-08</t>
+          <t>2008-02-22</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F28" t="n">
         <v>39</v>
       </c>
       <c r="G28" t="n">
-        <v>0.278</v>
+        <v>0.264</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
@@ -5416,10 +5483,10 @@
         <v>37.5</v>
       </c>
       <c r="J28" t="n">
-        <v>85.09999999999999</v>
+        <v>85.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L28" t="n">
         <v>4.3</v>
@@ -5428,28 +5495,28 @@
         <v>12.6</v>
       </c>
       <c r="N28" t="n">
-        <v>0.344</v>
+        <v>0.34</v>
       </c>
       <c r="O28" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P28" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="Q28" t="n">
         <v>0.764</v>
       </c>
       <c r="R28" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S28" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="T28" t="n">
         <v>45.4</v>
       </c>
       <c r="U28" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="V28" t="n">
         <v>16</v>
@@ -5461,10 +5528,10 @@
         <v>5.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA28" t="n">
         <v>20</v>
@@ -5473,10 +5540,10 @@
         <v>96.90000000000001</v>
       </c>
       <c r="AC28" t="n">
-        <v>-6.6</v>
+        <v>-6.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE28" t="n">
         <v>27</v>
@@ -5494,7 +5561,7 @@
         <v>9</v>
       </c>
       <c r="AJ28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK28" t="n">
         <v>23</v>
@@ -5506,7 +5573,7 @@
         <v>26</v>
       </c>
       <c r="AN28" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AO28" t="n">
         <v>24</v>
@@ -5518,7 +5585,7 @@
         <v>11</v>
       </c>
       <c r="AR28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS28" t="n">
         <v>1</v>
@@ -5527,13 +5594,13 @@
         <v>1</v>
       </c>
       <c r="AU28" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AV28" t="n">
         <v>28</v>
       </c>
       <c r="AW28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX28" t="n">
         <v>6</v>
@@ -5551,7 +5618,7 @@
         <v>17</v>
       </c>
       <c r="BC28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-22-2007-08</t>
+          <t>2008-02-22</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E29" t="n">
         <v>29</v>
       </c>
       <c r="F29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G29" t="n">
-        <v>0.547</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
@@ -5598,46 +5665,46 @@
         <v>37.6</v>
       </c>
       <c r="J29" t="n">
-        <v>81</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K29" t="n">
         <v>0.464</v>
       </c>
       <c r="L29" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M29" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="N29" t="n">
-        <v>0.423</v>
+        <v>0.424</v>
       </c>
       <c r="O29" t="n">
         <v>16.6</v>
       </c>
       <c r="P29" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="R29" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="S29" t="n">
         <v>30.5</v>
       </c>
       <c r="T29" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="U29" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="V29" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="W29" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X29" t="n">
         <v>3.9</v>
@@ -5655,10 +5722,10 @@
         <v>99.59999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE29" t="n">
         <v>14</v>
@@ -5667,7 +5734,7 @@
         <v>13</v>
       </c>
       <c r="AG29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH29" t="n">
         <v>11</v>
@@ -5676,13 +5743,13 @@
         <v>7</v>
       </c>
       <c r="AJ29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK29" t="n">
         <v>6</v>
       </c>
       <c r="AL29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM29" t="n">
         <v>14</v>
@@ -5691,7 +5758,7 @@
         <v>1</v>
       </c>
       <c r="AO29" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AP29" t="n">
         <v>29</v>
@@ -5718,7 +5785,7 @@
         <v>21</v>
       </c>
       <c r="AX29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY29" t="n">
         <v>6</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-22-2007-08</t>
+          <t>2008-02-22</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E30" t="n">
         <v>35</v>
       </c>
       <c r="F30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G30" t="n">
-        <v>0.636</v>
+        <v>0.648</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
@@ -5780,34 +5847,34 @@
         <v>39.8</v>
       </c>
       <c r="J30" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K30" t="n">
         <v>0.492</v>
       </c>
       <c r="L30" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="M30" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="N30" t="n">
-        <v>0.362</v>
+        <v>0.369</v>
       </c>
       <c r="O30" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="P30" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.753</v>
+        <v>0.755</v>
       </c>
       <c r="R30" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S30" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="T30" t="n">
         <v>40.9</v>
@@ -5819,7 +5886,7 @@
         <v>15.3</v>
       </c>
       <c r="W30" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X30" t="n">
         <v>4.4</v>
@@ -5831,34 +5898,34 @@
         <v>24.6</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="AB30" t="n">
         <v>105.6</v>
       </c>
       <c r="AC30" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="AD30" t="n">
         <v>3</v>
       </c>
       <c r="AE30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI30" t="n">
         <v>3</v>
       </c>
       <c r="AJ30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK30" t="n">
         <v>2</v>
@@ -5870,7 +5937,7 @@
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO30" t="n">
         <v>4</v>
@@ -5888,19 +5955,19 @@
         <v>25</v>
       </c>
       <c r="AT30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU30" t="n">
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY30" t="n">
         <v>28</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-22-2007-08</t>
+          <t>2008-02-22</t>
         </is>
       </c>
     </row>
@@ -5944,55 +6011,55 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E31" t="n">
         <v>25</v>
       </c>
       <c r="F31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G31" t="n">
-        <v>0.463</v>
+        <v>0.472</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
       </c>
       <c r="I31" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J31" t="n">
-        <v>81.8</v>
+        <v>82</v>
       </c>
       <c r="K31" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L31" t="n">
         <v>6.6</v>
       </c>
       <c r="M31" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="N31" t="n">
-        <v>0.34</v>
+        <v>0.341</v>
       </c>
       <c r="O31" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="P31" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.796</v>
+        <v>0.798</v>
       </c>
       <c r="R31" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="S31" t="n">
         <v>29.9</v>
       </c>
       <c r="T31" t="n">
-        <v>42.2</v>
+        <v>42.4</v>
       </c>
       <c r="U31" t="n">
         <v>19</v>
@@ -6010,40 +6077,40 @@
         <v>4.4</v>
       </c>
       <c r="Z31" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AA31" t="n">
         <v>20.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="AC31" t="n">
         <v>-0.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ31" t="n">
         <v>11</v>
       </c>
       <c r="AK31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL31" t="n">
         <v>13</v>
@@ -6052,10 +6119,10 @@
         <v>11</v>
       </c>
       <c r="AN31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP31" t="n">
         <v>20</v>
@@ -6064,7 +6131,7 @@
         <v>3</v>
       </c>
       <c r="AR31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS31" t="n">
         <v>21</v>
@@ -6076,7 +6143,7 @@
         <v>28</v>
       </c>
       <c r="AV31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW31" t="n">
         <v>8</v>
@@ -6097,7 +6164,7 @@
         <v>14</v>
       </c>
       <c r="BC31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-22-2007-08</t>
+          <t>2008-02-22</t>
         </is>
       </c>
     </row>
